--- a/P5_fault_locator.xlsx
+++ b/P5_fault_locator.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sesa687017\Desktop\P5\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiefei\Desktop\GenerateTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13AF010-FEC6-4429-9453-7134F5A2EF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F379BD1-5D9E-4889-B0A8-F54F4A3D956B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="feeder fault locator" sheetId="1" r:id="rId1"/>
-    <sheet name="incomer fault locator" sheetId="2" r:id="rId2"/>
+    <sheet name="feeder_fault_locator" sheetId="1" r:id="rId1"/>
+    <sheet name="incomer_fault_locator" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>fault type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,48 +240,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A-N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C-N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AB-N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BC-N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CA-N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABC-N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phase A current_fault</t>
+  </si>
+  <si>
+    <t>phase B current_fault</t>
+  </si>
+  <si>
+    <t>phase C current_fault</t>
+  </si>
+  <si>
+    <t>phase A voltage_fault</t>
+  </si>
+  <si>
+    <t>phase B voltage_fault</t>
+  </si>
+  <si>
+    <t>phase C voltage_fault</t>
   </si>
 </sst>
 </file>
@@ -361,7 +339,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -639,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AC1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -650,156 +628,104 @@
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="5" width="31.109375" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" customWidth="1"/>
-    <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="27" max="27" width="16.5546875" customWidth="1"/>
+    <col min="4" max="6" width="31.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="28" max="28" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="G1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="I1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -814,10 +740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBEBB76-6E9E-4FFD-9E63-547C8E3E830A}">
-  <dimension ref="A1:AN5"/>
+  <dimension ref="A1:AN1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -961,26 +887,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/P5_fault_locator.xlsx
+++ b/P5_fault_locator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiefei\Desktop\GenerateTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F379BD1-5D9E-4889-B0A8-F54F4A3D956B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6C33DC-C69F-4200-84D3-E6C832A595DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feeder_fault_locator" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>fault type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,82 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>phase A current(pre-fault)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phase A current(fault)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phase A current(post-fault)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phase B current(pre-fault)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phase B current(fault)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phase B current(post-fault)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phase C current(pre-fault)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phase C current(fault)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phase C current(post-fault)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phase A voltage(pre-fault)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phase A voltage(fault)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phase A voltage(post-fault)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phase B voltage(pre-fault)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phase B voltage(fault)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phase B voltage(post-fault)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phase C voltage(pre-fault)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phase C voltage(fault)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phase C voltage(post-fault)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> theoretical V drop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pick-up value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,6 +184,58 @@
   </si>
   <si>
     <t>phase C voltage_fault</t>
+  </si>
+  <si>
+    <t>phase A voltage_prefault</t>
+  </si>
+  <si>
+    <t>phase B voltage_prefault</t>
+  </si>
+  <si>
+    <t>phase C voltage_prefault</t>
+  </si>
+  <si>
+    <t>phase A current_prefault</t>
+  </si>
+  <si>
+    <t>phase B current_prefault</t>
+  </si>
+  <si>
+    <t>phase C current_prefault</t>
+  </si>
+  <si>
+    <t>phase A current_postfault</t>
+  </si>
+  <si>
+    <t>phase B current_postfault</t>
+  </si>
+  <si>
+    <t>phase C current_postfault</t>
+  </si>
+  <si>
+    <t>phase A voltage_postfault</t>
+  </si>
+  <si>
+    <t>phase B voltage_postfault</t>
+  </si>
+  <si>
+    <t>phase C voltage_postfault</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> theoretical _Vdrop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> theoretical_XFlt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> theoretical_ Distance_fault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vdrop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -619,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -644,64 +620,64 @@
         <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>8</v>
@@ -710,19 +686,19 @@
         <v>9</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>18</v>
@@ -742,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBEBB76-6E9E-4FFD-9E63-547C8E3E830A}">
   <dimension ref="A1:AN1"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -770,58 +746,58 @@
         <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>3</v>
@@ -845,13 +821,13 @@
         <v>7</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>10</v>
@@ -878,7 +854,7 @@
         <v>17</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>19</v>
